--- a/parametrii.xlsx
+++ b/parametrii.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\GitHub\ibima-39\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653649F8-DC9C-4011-BE81-A13872A27EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B04B985-7B17-4CDB-A99A-1057C0BE0B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5850" windowWidth="25455" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8556" yWindow="3060" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>Pt perioada de test</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Ce prezic</t>
+  </si>
+  <si>
+    <t>pt toata perioada</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>ta</t>
   </si>
 </sst>
 </file>
@@ -97,12 +109,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -169,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +215,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,26 +502,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:K31"/>
+  <dimension ref="C5:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="L15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:19" x14ac:dyDescent="0.3">
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:19" x14ac:dyDescent="0.3">
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>1</v>
@@ -508,8 +541,24 @@
       <c r="K8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N8" s="2"/>
+      <c r="O8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
@@ -528,8 +577,29 @@
       <c r="K9" s="6">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="6:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2143</v>
+      </c>
+      <c r="P9" s="6">
+        <v>764</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R9" s="6">
+        <v>-0.6</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="5:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
@@ -548,8 +618,26 @@
       <c r="K10" s="6">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="11" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1859</v>
+      </c>
+      <c r="P10" s="6">
+        <v>720</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="R10" s="6">
+        <v>-0.39</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
@@ -568,8 +656,26 @@
       <c r="K11" s="6">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="12" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1057</v>
+      </c>
+      <c r="P11" s="6">
+        <v>471</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="R11" s="6">
+        <v>-0.84</v>
+      </c>
+      <c r="S11" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
@@ -588,8 +694,26 @@
       <c r="K12" s="6">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="13" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1319</v>
+      </c>
+      <c r="P12" s="6">
+        <v>224</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>-2.48</v>
+      </c>
+      <c r="R12" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
@@ -608,8 +732,26 @@
       <c r="K13" s="6">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="14" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="6">
+        <v>488</v>
+      </c>
+      <c r="P13" s="6">
+        <v>618</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="14" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
@@ -620,7 +762,7 @@
         <v>238</v>
       </c>
       <c r="I14" s="6">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="J14" s="6">
         <v>-0.56000000000000005</v>
@@ -628,12 +770,30 @@
       <c r="K14" s="6">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="15" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="6">
+        <v>80</v>
+      </c>
+      <c r="P14" s="6">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="R14" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="15" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>62</v>
       </c>
       <c r="H15" s="6">
@@ -648,48 +808,82 @@
       <c r="K15" s="6">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="16" spans="6:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="7">
+        <v>30</v>
+      </c>
+      <c r="P15" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="R15" s="6">
+        <v>-1.62</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="5:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="6">
-        <v>71</v>
-      </c>
-      <c r="H16" s="6">
-        <v>705</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>-0.41</v>
-      </c>
-      <c r="K16" s="6">
-        <v>9.81</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="N16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="6">
+        <v>-273</v>
+      </c>
+      <c r="P16" s="6">
+        <v>595</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S16" s="6">
+        <v>-2.17</v>
+      </c>
+    </row>
+    <row r="17" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="6">
-        <v>6755</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1056</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="N17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="6">
+        <v>6979</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1151</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="R17" s="6">
+        <v>-0.27</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
@@ -708,16 +902,34 @@
       <c r="K18" s="6">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="N18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="7">
+        <v>6706</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1025</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="R18" s="6">
+        <v>-0.53</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="6:20" x14ac:dyDescent="0.3">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
         <v>1</v>
@@ -734,8 +946,14 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F22" s="4" t="s">
         <v>6</v>
       </c>
@@ -754,8 +972,14 @@
       <c r="K22" s="6">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="23" spans="6:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M22" s="2"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="6:20" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F23" s="4" t="s">
         <v>7</v>
       </c>
@@ -769,13 +993,29 @@
         <v>0.94</v>
       </c>
       <c r="J23" s="6">
-        <v>0.50700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="K23" s="6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M23" s="2"/>
+      <c r="N23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F24" s="4" t="s">
         <v>8</v>
       </c>
@@ -794,8 +1034,26 @@
       <c r="K24" s="6">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="25" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6706</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1025</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>-0.53</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="4" t="s">
         <v>9</v>
       </c>
@@ -815,7 +1073,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="4" t="s">
         <v>10</v>
       </c>
@@ -835,7 +1093,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="4" t="s">
         <v>11</v>
       </c>
@@ -846,7 +1104,7 @@
         <v>77</v>
       </c>
       <c r="I27" s="6">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="J27" s="6">
         <v>-0.28000000000000003</v>
@@ -854,8 +1112,24 @@
       <c r="K27" s="6">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="28" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O27" s="2"/>
+      <c r="P27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F28" s="4" t="s">
         <v>12</v>
       </c>
@@ -869,53 +1143,87 @@
         <v>-0.78</v>
       </c>
       <c r="J28" s="6">
-        <v>-0.33</v>
+        <v>0.33</v>
       </c>
       <c r="K28" s="6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="6:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="5">
+        <v>2143</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>764</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S28" s="6">
+        <v>-0.6</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="6:20" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="6">
-        <v>167</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1129</v>
-      </c>
-      <c r="I29" s="6">
-        <v>-0.24</v>
-      </c>
-      <c r="J29" s="6">
-        <v>-0.59</v>
-      </c>
-      <c r="K29" s="6">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="30" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="O29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="6">
+        <v>1859</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>720</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="S29" s="6">
+        <v>-0.39</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="30" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="6">
-        <v>6755</v>
-      </c>
-      <c r="H30" s="6">
-        <v>800</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="31" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="O30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="6">
+        <v>1057</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>471</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="S30" s="6">
+        <v>-0.84</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="31" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F31" s="4" t="s">
         <v>15</v>
       </c>
@@ -929,12 +1237,177 @@
         <v>-0.01</v>
       </c>
       <c r="J31" s="6">
-        <v>-0.22</v>
+        <v>0.22</v>
       </c>
       <c r="K31" s="6">
         <v>0.1</v>
       </c>
-    </row>
+      <c r="O31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1319</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>224</v>
+      </c>
+      <c r="R31" s="6">
+        <v>-2.48</v>
+      </c>
+      <c r="S31" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="32" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="6">
+        <v>488</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>618</v>
+      </c>
+      <c r="R32" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="S32" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="6">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>175</v>
+      </c>
+      <c r="R33" s="6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="S33" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T33" s="8">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="2"/>
+      <c r="G34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>28</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="S34" s="6">
+        <v>-1.62</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="7">
+        <v>6827</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1031</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="J35" s="6">
+        <v>-0.62</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="7">
+        <v>6706</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1025</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="S35" s="6">
+        <v>-0.53</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="6">
+        <v>6827</v>
+      </c>
+      <c r="H36" s="6">
+        <v>717</v>
+      </c>
+      <c r="I36" s="6">
+        <v>-0.01</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="44" spans="3:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
